--- a/products.xlsx
+++ b/products.xlsx
@@ -1,63 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11760" windowWidth="20730" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="products" sheetId="2" r:id="rId1"/>
+    <sheet name="products" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="145621" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>product_id</t>
-  </si>
-  <si>
-    <t>client_id</t>
-  </si>
-  <si>
-    <t>product_name</t>
-  </si>
-  <si>
-    <t>purchase_date</t>
-  </si>
-  <si>
-    <t>tv</t>
-  </si>
-  <si>
-    <t>mobile phone</t>
-  </si>
-  <si>
-    <t>microwave</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -73,25 +43,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -350,85 +311,213 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="14.5703125"/>
+    <col customWidth="1" max="2" min="2" width="19"/>
+    <col customWidth="1" max="3" min="3" width="16.7109375"/>
+    <col customWidth="1" max="4" min="4" width="23.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>product_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>product_name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>client_id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>purchase_date</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1010101010</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>tv</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>123456789</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="n">
         <v>43444</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>202020125</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>mobile phone</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>987654321</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="n">
         <v>43511</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>221525555</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>microwave</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>123456789</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="n">
         <v>43588</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>gogo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28/10/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>gogo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28/10/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>gogo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>123456789</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28/10/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>nancy</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>33344</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28/10/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1111</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>snhsxb</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>24567</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29/10/2019</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>